--- a/Consumer/Booking Holdings.xlsx
+++ b/Consumer/Booking Holdings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F67498-543C-7C48-B361-9B24F1E14342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0EC9EC-82FB-2343-B8D1-431D813E70D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1564,9 +1564,9 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth Portfolio"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Retirement"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -1585,7 +1585,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1726,11 +1726,11 @@
     <v>Powered by Refinitiv</v>
     <v>3251.7094000000002</v>
     <v>1760.02</v>
-    <v>1.3460000000000001</v>
-    <v>-65.040000000000006</v>
-    <v>-2.2818999999999999E-2</v>
-    <v>-1.7</v>
-    <v>-6.1039999999999998E-4</v>
+    <v>1.3508</v>
+    <v>-28.56</v>
+    <v>-1.0254000000000001E-2</v>
+    <v>-5.64</v>
+    <v>-2.0460000000000001E-3</v>
     <v>USD</v>
     <v>Booking Holdings Inc. is a provider of travel and restaurant online reservation and related services. The Company offers its services through six consumer-facing brands: Booking.com, Priceline.com, agoda.com, Rentalcars.com, KAYAK and OpenTable, Inc. (OpenTable). Through the Company's brands, consumers can: book a range of accommodations, including hotels, motels, resorts, homes, apartments, bed and breakfasts, hostels and other properties; make a car rental reservation or arrange for an airport taxi; make a dinner reservation; book a flight, cruise, vacation package, tour or activity. Consumers can also use its meta-search services to easily compare travel reservation information, such as airline ticket, hotel reservation and rental car reservation information, from various online travel platforms at once. Booking.com offers accommodation reservation services for approximately 400,000 properties in over 220 countries and territories, and in over 40 languages.</v>
     <v>21600</v>
@@ -1738,25 +1738,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>800 CONNECTICUT AVE, NORWALK, CT, 06854-1631 US</v>
-    <v>2837.41</v>
+    <v>2793.14</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45218.994067267966</v>
+    <v>45219.98352775391</v>
     <v>0</v>
-    <v>2769.375</v>
-    <v>99409804032</v>
+    <v>2747.0050000000001</v>
+    <v>98390435942</v>
     <v>BOOKING HOLDINGS INC.</v>
     <v>BOOKING HOLDINGS INC.</v>
-    <v>2836.94</v>
+    <v>2779.8</v>
     <v>24.049199999999999</v>
-    <v>2850.24</v>
     <v>2785.2</v>
-    <v>2783.5</v>
+    <v>2756.64</v>
+    <v>2751</v>
     <v>35692160</v>
     <v>BKNG</v>
     <v>BOOKING HOLDINGS INC. (XNAS:BKNG)</v>
-    <v>436323</v>
-    <v>255164</v>
+    <v>313762</v>
+    <v>260363</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -15684,7 +15684,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15733,7 +15733,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>99409804032</v>
+        <v>98390435942</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>201</v>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="I3" s="45">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>142748226818.80453</v>
+        <v>143162564904.08405</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>205</v>
@@ -15806,14 +15806,14 @@
       </c>
       <c r="I4" s="55">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>122926250871.9977</v>
+        <v>123291375688.40108</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="44" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.2818999999999999E-2</v>
+        <v>-1.0254000000000001E-2</v>
       </c>
       <c r="L4" s="43" t="s">
         <v>212</v>
@@ -15856,14 +15856,14 @@
       </c>
       <c r="I5" s="55">
         <f>I4+G5-G6</f>
-        <v>123582250871.99768</v>
+        <v>123947375688.40106</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="57" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>2785.2</v>
+        <v>2756.64</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>219</v>
@@ -15881,7 +15881,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>4.6935695954674221</v>
+        <v>4.6454407904627004</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>221</v>
@@ -15909,14 +15909,14 @@
       </c>
       <c r="I6" s="62">
         <f>N25</f>
-        <v>8.8611823434599821E-2</v>
+        <v>8.8427719432686402E-2</v>
       </c>
       <c r="J6" s="54" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="63">
         <f>I5/G4</f>
-        <v>4459.0878677454402</v>
+        <v>4472.2622809605182</v>
       </c>
       <c r="L6" s="64" t="s">
         <v>225</v>
@@ -15934,14 +15934,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="67">
         <f>O20/F12</f>
-        <v>18.381990390532543</v>
+        <v>18.193497770340237</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="69">
         <f>F14/O21</f>
-        <v>5.8651281569303715E-2</v>
+        <v>5.9180482586939351E-2</v>
       </c>
       <c r="D7" s="70" t="s">
         <v>228</v>
@@ -15968,7 +15968,7 @@
       </c>
       <c r="K7" s="110">
         <f>K6/K5-1</f>
-        <v>0.60099377701617129</v>
+        <v>0.62235993127884615</v>
       </c>
       <c r="L7" s="76" t="s">
         <v>231</v>
@@ -16273,7 +16273,7 @@
       </c>
       <c r="O14" s="94">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
       <c r="P14" s="48"/>
     </row>
@@ -16323,7 +16323,7 @@
       </c>
       <c r="O15" s="98" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.3460000000000001</v>
+        <v>1.3508</v>
       </c>
       <c r="P15" s="48"/>
     </row>
@@ -16378,7 +16378,7 @@
       </c>
       <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6103080000000007E-2</v>
+        <v>9.5969296000000009E-2</v>
       </c>
       <c r="P17" s="48"/>
     </row>
@@ -16453,7 +16453,7 @@
       </c>
       <c r="O20" s="107" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>99409804032</v>
+        <v>98390435942</v>
       </c>
       <c r="P20" s="48"/>
     </row>
@@ -16475,7 +16475,7 @@
       </c>
       <c r="O21" s="107">
         <f>O19+O20</f>
-        <v>113995804032</v>
+        <v>112976435942</v>
       </c>
       <c r="P21" s="48"/>
     </row>
@@ -16498,7 +16498,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>0.12795207791951302</v>
+        <v>0.12910656880243754</v>
       </c>
       <c r="P22" s="48"/>
     </row>
@@ -16521,7 +16521,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.87204792208048698</v>
+        <v>0.87089343119756246</v>
       </c>
       <c r="P23" s="48"/>
     </row>
@@ -16561,7 +16561,7 @@
       <c r="M25" s="85"/>
       <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.8611823434599821E-2</v>
+        <v>8.8427719432686402E-2</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="48"/>

--- a/Consumer/Booking Holdings.xlsx
+++ b/Consumer/Booking Holdings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0EC9EC-82FB-2343-B8D1-431D813E70D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C14D17-7FB4-9D48-B486-422E0D060064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1481,9 +1481,6 @@
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1495,6 +1492,9 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1515,7 +1515,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1530,7 +1530,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1560,13 +1560,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Retirement"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -1582,14 +1584,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -1599,6 +1601,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1725,12 +1729,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>3251.7094000000002</v>
-    <v>1760.02</v>
-    <v>1.3508</v>
-    <v>-28.56</v>
-    <v>-1.0254000000000001E-2</v>
-    <v>-5.64</v>
-    <v>-2.0460000000000001E-3</v>
+    <v>1771.32</v>
+    <v>1.3603000000000001</v>
+    <v>3.47</v>
+    <v>1.2650000000000001E-3</v>
+    <v>-3.6</v>
+    <v>-1.3109999999999999E-3</v>
     <v>USD</v>
     <v>Booking Holdings Inc. is a provider of travel and restaurant online reservation and related services. The Company offers its services through six consumer-facing brands: Booking.com, Priceline.com, agoda.com, Rentalcars.com, KAYAK and OpenTable, Inc. (OpenTable). Through the Company's brands, consumers can: book a range of accommodations, including hotels, motels, resorts, homes, apartments, bed and breakfasts, hostels and other properties; make a car rental reservation or arrange for an airport taxi; make a dinner reservation; book a flight, cruise, vacation package, tour or activity. Consumers can also use its meta-search services to easily compare travel reservation information, such as airline ticket, hotel reservation and rental car reservation information, from various online travel platforms at once. Booking.com offers accommodation reservation services for approximately 400,000 properties in over 220 countries and territories, and in over 40 languages.</v>
     <v>21600</v>
@@ -1738,25 +1742,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>800 CONNECTICUT AVE, NORWALK, CT, 06854-1631 US</v>
-    <v>2793.14</v>
+    <v>2784.59</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45219.98352775391</v>
+    <v>45226.996915902346</v>
     <v>0</v>
-    <v>2747.0050000000001</v>
-    <v>98390435942</v>
+    <v>2737.26</v>
+    <v>98016380000</v>
     <v>BOOKING HOLDINGS INC.</v>
     <v>BOOKING HOLDINGS INC.</v>
-    <v>2779.8</v>
-    <v>24.049199999999999</v>
-    <v>2785.2</v>
-    <v>2756.64</v>
-    <v>2751</v>
+    <v>2747.44</v>
+    <v>23.7121</v>
+    <v>2742.69</v>
+    <v>2746.16</v>
+    <v>2742.56</v>
     <v>35692160</v>
     <v>BKNG</v>
     <v>BOOKING HOLDINGS INC. (XNAS:BKNG)</v>
-    <v>313762</v>
-    <v>260363</v>
+    <v>209810</v>
+    <v>240098</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1921,9 +1925,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2368,9 +2372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15684,7 +15688,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15733,7 +15737,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>98390435942</v>
+        <v>98016380000</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>201</v>
@@ -15761,7 +15765,7 @@
       </c>
       <c r="I3" s="45">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>143162564904.08405</v>
+        <v>141587504201.36783</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>205</v>
@@ -15806,14 +15810,14 @@
       </c>
       <c r="I4" s="55">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>123291375688.40108</v>
+        <v>121903424320.94183</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="44" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.0254000000000001E-2</v>
+        <v>1.2650000000000001E-3</v>
       </c>
       <c r="L4" s="43" t="s">
         <v>212</v>
@@ -15856,14 +15860,14 @@
       </c>
       <c r="I5" s="55">
         <f>I4+G5-G6</f>
-        <v>123947375688.40106</v>
+        <v>122559424320.94183</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="57" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>2756.64</v>
+        <v>2746.16</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>219</v>
@@ -15881,7 +15885,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>4.6454407904627004</v>
+        <v>4.6277799811142586</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>221</v>
@@ -15909,14 +15913,14 @@
       </c>
       <c r="I6" s="62">
         <f>N25</f>
-        <v>8.8427719432686402E-2</v>
+        <v>8.9133307887718782E-2</v>
       </c>
       <c r="J6" s="54" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="63">
         <f>I5/G4</f>
-        <v>4472.2622809605182</v>
+        <v>4422.1822973060007</v>
       </c>
       <c r="L6" s="64" t="s">
         <v>225</v>
@@ -15934,14 +15938,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="67">
         <f>O20/F12</f>
-        <v>18.193497770340237</v>
+        <v>18.124330621301777</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="69">
-        <f>F14/O21</f>
-        <v>5.9180482586939351E-2</v>
+        <f>F14/A3</f>
+        <v>6.8213088465417723E-2</v>
       </c>
       <c r="D7" s="70" t="s">
         <v>228</v>
@@ -15966,9 +15970,9 @@
       <c r="J7" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="110">
+      <c r="K7" s="109">
         <f>K6/K5-1</f>
-        <v>0.62235993127884615</v>
+        <v>0.61031487506408988</v>
       </c>
       <c r="L7" s="76" t="s">
         <v>231</v>
@@ -16273,7 +16277,7 @@
       </c>
       <c r="O14" s="94">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
       <c r="P14" s="48"/>
     </row>
@@ -16323,7 +16327,7 @@
       </c>
       <c r="O15" s="98" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.3508</v>
+        <v>1.3603000000000001</v>
       </c>
       <c r="P15" s="48"/>
     </row>
@@ -16378,7 +16382,7 @@
       </c>
       <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.5969296000000009E-2</v>
+        <v>9.6808665000000016E-2</v>
       </c>
       <c r="P17" s="48"/>
     </row>
@@ -16413,7 +16417,7 @@
         <v>1998</v>
       </c>
       <c r="D19" s="122"/>
-      <c r="E19" s="106"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="85"/>
       <c r="G19" s="85"/>
       <c r="H19" s="85"/>
@@ -16425,7 +16429,7 @@
       <c r="N19" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="107">
+      <c r="O19" s="106">
         <f>O6+O7</f>
         <v>14586000000</v>
       </c>
@@ -16451,9 +16455,9 @@
       <c r="N20" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="107" cm="1">
+      <c r="O20" s="106" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>98390435942</v>
+        <v>98016380000</v>
       </c>
       <c r="P20" s="48"/>
     </row>
@@ -16473,9 +16477,9 @@
       <c r="N21" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="107">
+      <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>112976435942</v>
+        <v>112602380000</v>
       </c>
       <c r="P21" s="48"/>
     </row>
@@ -16496,9 +16500,9 @@
       <c r="N22" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="108">
+      <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>0.12910656880243754</v>
+        <v>0.12953545031641428</v>
       </c>
       <c r="P22" s="48"/>
     </row>
@@ -16519,9 +16523,9 @@
       <c r="N23" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="109">
+      <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.87089343119756246</v>
+        <v>0.87046454968358578</v>
       </c>
       <c r="P23" s="48"/>
     </row>
@@ -16561,7 +16565,7 @@
       <c r="M25" s="85"/>
       <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.8427719432686402E-2</v>
+        <v>8.9133307887718782E-2</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="48"/>

--- a/Consumer/Booking Holdings.xlsx
+++ b/Consumer/Booking Holdings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C14D17-7FB4-9D48-B486-422E0D060064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64EA4E7-3F98-1143-A994-595EC1A0F279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1565,13 +1565,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1588,7 +1585,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1600,9 +1597,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1729,12 +1723,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>3251.7094000000002</v>
-    <v>1771.32</v>
-    <v>1.3603000000000001</v>
-    <v>3.47</v>
-    <v>1.2650000000000001E-3</v>
-    <v>-3.6</v>
-    <v>-1.3109999999999999E-3</v>
+    <v>1797.92</v>
+    <v>1.3569</v>
+    <v>72.39</v>
+    <v>2.6168999999999998E-2</v>
     <v>USD</v>
     <v>Booking Holdings Inc. is a provider of travel and restaurant online reservation and related services. The Company offers its services through six consumer-facing brands: Booking.com, Priceline.com, agoda.com, Rentalcars.com, KAYAK and OpenTable, Inc. (OpenTable). Through the Company's brands, consumers can: book a range of accommodations, including hotels, motels, resorts, homes, apartments, bed and breakfasts, hostels and other properties; make a car rental reservation or arrange for an airport taxi; make a dinner reservation; book a flight, cruise, vacation package, tour or activity. Consumers can also use its meta-search services to easily compare travel reservation information, such as airline ticket, hotel reservation and rental car reservation information, from various online travel platforms at once. Booking.com offers accommodation reservation services for approximately 400,000 properties in over 220 countries and territories, and in over 40 languages.</v>
     <v>21600</v>
@@ -1742,25 +1734,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>800 CONNECTICUT AVE, NORWALK, CT, 06854-1631 US</v>
-    <v>2784.59</v>
+    <v>2843.96</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45226.996915902346</v>
+    <v>45232.999954050778</v>
     <v>0</v>
-    <v>2737.26</v>
-    <v>98016380000</v>
+    <v>2756.39</v>
+    <v>101316479219</v>
     <v>BOOKING HOLDINGS INC.</v>
     <v>BOOKING HOLDINGS INC.</v>
-    <v>2747.44</v>
-    <v>23.7121</v>
-    <v>2742.69</v>
-    <v>2746.16</v>
-    <v>2742.56</v>
+    <v>2807.01</v>
+    <v>19.7652</v>
+    <v>2766.23</v>
+    <v>2838.62</v>
     <v>35692160</v>
     <v>BKNG</v>
     <v>BOOKING HOLDINGS INC. (XNAS:BKNG)</v>
-    <v>209810</v>
-    <v>240098</v>
+    <v>64</v>
+    <v>244969</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1792,8 +1783,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1814,7 +1803,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1831,7 +1819,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1842,16 +1830,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1917,19 +1902,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1974,9 +1953,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1984,9 +1960,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2373,8 +2346,8 @@
   <dimension ref="A1:XEY196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15688,7 +15661,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15737,7 +15710,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>98016380000</v>
+        <v>101316479219</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>201</v>
@@ -15765,7 +15738,7 @@
       </c>
       <c r="I3" s="45">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>141587504201.36783</v>
+        <v>141544937912.41681</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>205</v>
@@ -15810,14 +15783,14 @@
       </c>
       <c r="I4" s="55">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>121903424320.94183</v>
+        <v>121865915851.80363</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="44" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.2650000000000001E-3</v>
+        <v>2.6168999999999998E-2</v>
       </c>
       <c r="L4" s="43" t="s">
         <v>212</v>
@@ -15860,14 +15833,14 @@
       </c>
       <c r="I5" s="55">
         <f>I4+G5-G6</f>
-        <v>122559424320.94183</v>
+        <v>122521915851.80363</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="57" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>2746.16</v>
+        <v>2838.62</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>219</v>
@@ -15885,7 +15858,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>4.6277799811142586</v>
+        <v>4.7835920311142583</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>221</v>
@@ -15913,14 +15886,14 @@
       </c>
       <c r="I6" s="62">
         <f>N25</f>
-        <v>8.9133307887718782E-2</v>
+        <v>8.9152594461687426E-2</v>
       </c>
       <c r="J6" s="54" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="63">
         <f>I5/G4</f>
-        <v>4422.1822973060007</v>
+        <v>4420.8289188192703</v>
       </c>
       <c r="L6" s="64" t="s">
         <v>225</v>
@@ -15938,14 +15911,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="67">
         <f>O20/F12</f>
-        <v>18.124330621301777</v>
+        <v>18.734556068602071</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="69">
         <f>F14/A3</f>
-        <v>6.8213088465417723E-2</v>
+        <v>6.5991239051526041E-2</v>
       </c>
       <c r="D7" s="70" t="s">
         <v>228</v>
@@ -15972,7 +15945,7 @@
       </c>
       <c r="K7" s="109">
         <f>K6/K5-1</f>
-        <v>0.61031487506408988</v>
+        <v>0.55738665929898001</v>
       </c>
       <c r="L7" s="76" t="s">
         <v>231</v>
@@ -16277,7 +16250,7 @@
       </c>
       <c r="O14" s="94">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
       <c r="P14" s="48"/>
     </row>
@@ -16327,7 +16300,7 @@
       </c>
       <c r="O15" s="98" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.3603000000000001</v>
+        <v>1.3569</v>
       </c>
       <c r="P15" s="48"/>
     </row>
@@ -16382,7 +16355,7 @@
       </c>
       <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6808665000000016E-2</v>
+        <v>9.6580725000000006E-2</v>
       </c>
       <c r="P17" s="48"/>
     </row>
@@ -16457,7 +16430,7 @@
       </c>
       <c r="O20" s="106" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>98016380000</v>
+        <v>101316479219</v>
       </c>
       <c r="P20" s="48"/>
     </row>
@@ -16479,7 +16452,7 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>112602380000</v>
+        <v>115902479219</v>
       </c>
       <c r="P21" s="48"/>
     </row>
@@ -16502,7 +16475,7 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>0.12953545031641428</v>
+        <v>0.12584717857880734</v>
       </c>
       <c r="P22" s="48"/>
     </row>
@@ -16525,7 +16498,7 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.87046454968358578</v>
+        <v>0.87415282142119266</v>
       </c>
       <c r="P23" s="48"/>
     </row>
@@ -16565,7 +16538,7 @@
       <c r="M25" s="85"/>
       <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.9133307887718782E-2</v>
+        <v>8.9152594461687426E-2</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="48"/>

--- a/Consumer/Booking Holdings.xlsx
+++ b/Consumer/Booking Holdings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64EA4E7-3F98-1143-A994-595EC1A0F279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F36A0E-2134-9A42-AC59-83D49D0D9BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1585,7 +1585,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5080000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1723,10 +1723,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>3251.7094000000002</v>
-    <v>1797.92</v>
-    <v>1.3569</v>
-    <v>72.39</v>
-    <v>2.6168999999999998E-2</v>
+    <v>1830.07</v>
+    <v>1.3616999999999999</v>
+    <v>-10.08</v>
+    <v>-3.3370000000000001E-3</v>
+    <v>-2.2599999999999998</v>
+    <v>-7.5079999999999993E-4</v>
     <v>USD</v>
     <v>Booking Holdings Inc. is a provider of travel and restaurant online reservation and related services. The Company offers its services through six consumer-facing brands: Booking.com, Priceline.com, agoda.com, Rentalcars.com, KAYAK and OpenTable, Inc. (OpenTable). Through the Company's brands, consumers can: book a range of accommodations, including hotels, motels, resorts, homes, apartments, bed and breakfasts, hostels and other properties; make a car rental reservation or arrange for an airport taxi; make a dinner reservation; book a flight, cruise, vacation package, tour or activity. Consumers can also use its meta-search services to easily compare travel reservation information, such as airline ticket, hotel reservation and rental car reservation information, from various online travel platforms at once. Booking.com offers accommodation reservation services for approximately 400,000 properties in over 220 countries and territories, and in over 40 languages.</v>
     <v>21600</v>
@@ -1734,24 +1736,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>800 CONNECTICUT AVE, NORWALK, CT, 06854-1631 US</v>
-    <v>2843.96</v>
+    <v>3033.33</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45232.999954050778</v>
+    <v>45240.023617823441</v>
     <v>0</v>
-    <v>2756.39</v>
-    <v>101316479219</v>
+    <v>2998.52</v>
+    <v>105027580066</v>
     <v>BOOKING HOLDINGS INC.</v>
     <v>BOOKING HOLDINGS INC.</v>
-    <v>2807.01</v>
-    <v>19.7652</v>
-    <v>2766.23</v>
-    <v>2838.62</v>
-    <v>35692160</v>
+    <v>3031.28</v>
+    <v>20.963899999999999</v>
+    <v>3020.34</v>
+    <v>3010.26</v>
+    <v>3008</v>
+    <v>34889870</v>
     <v>BKNG</v>
     <v>BOOKING HOLDINGS INC. (XNAS:BKNG)</v>
-    <v>64</v>
-    <v>244969</v>
+    <v>205973</v>
+    <v>285363</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1783,6 +1786,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1803,6 +1808,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1819,7 +1825,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1830,13 +1836,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1902,13 +1911,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1953,6 +1968,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1960,6 +1978,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2345,9 +2366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y48" sqref="Y48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15660,8 +15681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D493807-8DCA-7046-B23C-607ACEEFBA8F}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15710,7 +15731,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>101316479219</v>
+        <v>105027580066</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>201</v>
@@ -15738,7 +15759,7 @@
       </c>
       <c r="I3" s="45">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>141544937912.41681</v>
+        <v>138217093298.14212</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>205</v>
@@ -15776,21 +15797,21 @@
       </c>
       <c r="G4" s="53">
         <f>A5*(1+(5*G3))</f>
-        <v>27714692.900743872</v>
+        <v>27091720.76996395</v>
       </c>
       <c r="H4" s="54" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="55">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>121865915851.80363</v>
+        <v>118933687626.5645</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="44" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.6168999999999998E-2</v>
+        <v>-3.3370000000000001E-3</v>
       </c>
       <c r="L4" s="43" t="s">
         <v>212</v>
@@ -15805,7 +15826,7 @@
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>35692160</v>
+        <v>34889870</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>214</v>
@@ -15833,14 +15854,14 @@
       </c>
       <c r="I5" s="55">
         <f>I4+G5-G6</f>
-        <v>122521915851.80363</v>
+        <v>119589687626.5645</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="57" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>2838.62</v>
+        <v>3010.26</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>219</v>
@@ -15858,7 +15879,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>4.7835920311142583</v>
+        <v>4.9588092571293672</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>221</v>
@@ -15886,14 +15907,14 @@
       </c>
       <c r="I6" s="62">
         <f>N25</f>
-        <v>8.9152594461687426E-2</v>
+        <v>9.069719260708875E-2</v>
       </c>
       <c r="J6" s="54" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="63">
         <f>I5/G4</f>
-        <v>4420.8289188192703</v>
+        <v>4414.2521858246528</v>
       </c>
       <c r="L6" s="64" t="s">
         <v>225</v>
@@ -15911,14 +15932,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="67">
         <f>O20/F12</f>
-        <v>18.734556068602071</v>
+        <v>19.42078033764793</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="69">
         <f>F14/A3</f>
-        <v>6.5991239051526041E-2</v>
+        <v>6.365946921559533E-2</v>
       </c>
       <c r="D7" s="70" t="s">
         <v>228</v>
@@ -15945,7 +15966,7 @@
       </c>
       <c r="K7" s="109">
         <f>K6/K5-1</f>
-        <v>0.55738665929898001</v>
+        <v>0.46640229941089895</v>
       </c>
       <c r="L7" s="76" t="s">
         <v>231</v>
@@ -16250,7 +16271,7 @@
       </c>
       <c r="O14" s="94">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5080000000000002E-2</v>
       </c>
       <c r="P14" s="48"/>
     </row>
@@ -16300,7 +16321,7 @@
       </c>
       <c r="O15" s="98" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.3569</v>
+        <v>1.3616999999999999</v>
       </c>
       <c r="P15" s="48"/>
     </row>
@@ -16355,7 +16376,7 @@
       </c>
       <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6580725000000006E-2</v>
+        <v>9.8077364E-2</v>
       </c>
       <c r="P17" s="48"/>
     </row>
@@ -16430,7 +16451,7 @@
       </c>
       <c r="O20" s="106" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>101316479219</v>
+        <v>105027580066</v>
       </c>
       <c r="P20" s="48"/>
     </row>
@@ -16452,7 +16473,7 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>115902479219</v>
+        <v>119613580066</v>
       </c>
       <c r="P21" s="48"/>
     </row>
@@ -16475,7 +16496,7 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>0.12584717857880734</v>
+        <v>0.12194267567237586</v>
       </c>
       <c r="P22" s="48"/>
     </row>
@@ -16498,7 +16519,7 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.87415282142119266</v>
+        <v>0.87805732432762418</v>
       </c>
       <c r="P23" s="48"/>
     </row>
@@ -16538,7 +16559,7 @@
       <c r="M25" s="85"/>
       <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.9152594461687426E-2</v>
+        <v>9.069719260708875E-2</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="48"/>

--- a/Consumer/Booking Holdings.xlsx
+++ b/Consumer/Booking Holdings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F36A0E-2134-9A42-AC59-83D49D0D9BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28E31D3-42BE-EE4B-A366-8D744B75AB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -712,9 +712,6 @@
     <t>Enterprise Value</t>
   </si>
   <si>
-    <t>Daily Change %</t>
-  </si>
-  <si>
     <t>Cost of Debt</t>
   </si>
   <si>
@@ -824,6 +821,15 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -993,6 +999,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1076,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1121,65 +1133,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1188,23 +1143,212 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,7 +1358,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1289,124 +1455,11 @@
     <xf numFmtId="3" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1415,122 +1468,252 @@
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1568,6 +1751,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1585,7 +1769,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1597,6 +1781,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1723,12 +1908,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>3251.7094000000002</v>
-    <v>1830.07</v>
-    <v>1.3616999999999999</v>
-    <v>-10.08</v>
-    <v>-3.3370000000000001E-3</v>
-    <v>-2.2599999999999998</v>
-    <v>-7.5079999999999993E-4</v>
+    <v>1907.38</v>
+    <v>1.3786</v>
+    <v>33.86</v>
+    <v>1.0832999999999999E-2</v>
+    <v>5</v>
+    <v>1.5820000000000001E-3</v>
     <v>USD</v>
     <v>Booking Holdings Inc. is a provider of travel and restaurant online reservation and related services. The Company offers its services through six consumer-facing brands: Booking.com, Priceline.com, agoda.com, Rentalcars.com, KAYAK and OpenTable, Inc. (OpenTable). Through the Company's brands, consumers can: book a range of accommodations, including hotels, motels, resorts, homes, apartments, bed and breakfasts, hostels and other properties; make a car rental reservation or arrange for an airport taxi; make a dinner reservation; book a flight, cruise, vacation package, tour or activity. Consumers can also use its meta-search services to easily compare travel reservation information, such as airline ticket, hotel reservation and rental car reservation information, from various online travel platforms at once. Booking.com offers accommodation reservation services for approximately 400,000 properties in over 220 countries and territories, and in over 40 languages.</v>
     <v>21600</v>
@@ -1736,25 +1921,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>800 CONNECTICUT AVE, NORWALK, CT, 06854-1631 US</v>
-    <v>3033.33</v>
+    <v>3179.29</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45240.023617823441</v>
+    <v>45262.025916712497</v>
     <v>0</v>
-    <v>2998.52</v>
-    <v>105027580066</v>
+    <v>3099.0549999999998</v>
+    <v>110236600000</v>
     <v>BOOKING HOLDINGS INC.</v>
     <v>BOOKING HOLDINGS INC.</v>
-    <v>3031.28</v>
-    <v>20.963899999999999</v>
-    <v>3020.34</v>
-    <v>3010.26</v>
-    <v>3008</v>
+    <v>3125.29</v>
+    <v>21.767800000000001</v>
+    <v>3125.7</v>
+    <v>3159.56</v>
+    <v>3164.56</v>
     <v>34889870</v>
     <v>BKNG</v>
     <v>BOOKING HOLDINGS INC. (XNAS:BKNG)</v>
-    <v>205973</v>
-    <v>285363</v>
+    <v>205072</v>
+    <v>265606</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1919,9 +2104,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2366,9 +2551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C39" sqref="C39"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12588,8 +12773,8 @@
       <c r="N172" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O172" s="4" t="s">
-        <v>21</v>
+      <c r="O172" s="4">
+        <v>0</v>
       </c>
       <c r="P172" s="3" t="s">
         <v>21</v>
@@ -15672,7 +15857,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:S1 A2:S2 A4:S7 A15:S16 A19:S33 A191:S195 A9:S11 A13:K13 A37:S128 A130:S142 A144:S188" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:S1 A2:S2 A4:S7 A15:S16 A19:S33 A191:S195 A9:S11 A13:K13 A37:S128 A130:S142 A144:S171 A173:S188 A172:N172 P172:S172" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -15681,8 +15866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D493807-8DCA-7046-B23C-607ACEEFBA8F}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15690,1540 +15875,1604 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="e" vm="1">
+    <row r="1" spans="1:16" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="120" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-    </row>
-    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+    </row>
+    <row r="2" spans="1:16" s="121" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" cm="1">
+      <c r="A3" s="53" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>105027580066</v>
-      </c>
-      <c r="B3" s="41" t="s">
+        <v>110236600000</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="55">
         <f>Financials!O8*0.01</f>
         <v>1</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="55">
         <f>SUM(C11:E11)/3</f>
         <v>0.20769738086381898</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="57">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-4.4701509234835485E-2</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="45">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>138217093298.14212</v>
-      </c>
-      <c r="J3" s="41" t="s">
+      <c r="I3" s="58">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>134768145898.79709</v>
+      </c>
+      <c r="J3" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="118" t="s">
+      <c r="K3" s="60">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="M3" s="40"/>
+      <c r="N3" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="119"/>
-      <c r="P3" s="48"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
+      <c r="A4" s="62">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>656000000</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="42">
         <f>Financials!O17*0.01</f>
         <v>0.30049999999999999</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="42">
         <f>SUM(C13:E13)/3</f>
         <v>6.4609276188771618</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="65">
         <f>A5*(1+(5*G3))</f>
         <v>27091720.76996395</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="55">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>118933687626.5645</v>
-      </c>
-      <c r="J4" s="52" t="s">
+      <c r="I4" s="41">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>115895177210.46053</v>
+      </c>
+      <c r="J4" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="44" cm="1">
+      <c r="K4" s="66" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-3.3370000000000001E-3</v>
-      </c>
-      <c r="L4" s="43" t="s">
+        <v>1.0832999999999999E-2</v>
+      </c>
+      <c r="L4" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="40"/>
+      <c r="N4" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="48"/>
-      <c r="N4" s="120" t="s">
-        <v>213</v>
-      </c>
-      <c r="O4" s="121"/>
-      <c r="P4" s="48"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" cm="1">
+      <c r="A5" s="62" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>34889870</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="56">
+      <c r="B5" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="42">
         <f>Financials!O34*0.01</f>
         <v>0.23039999999999999</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="42">
+        <f>SUM(C16:E16)/3</f>
+        <v>-5.8889573614110624</v>
+      </c>
+      <c r="F5" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="51">
-        <f>SUM(C15:E15)/3</f>
-        <v>-5.8889573614110624</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="53">
+      <c r="G5" s="65">
         <f>Financials!O56</f>
         <v>15242000000</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="41">
+        <f>I4+G5-G6</f>
+        <v>116551177210.46053</v>
+      </c>
+      <c r="J5" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="55">
-        <f>I4+G5-G6</f>
-        <v>119589687626.5645</v>
-      </c>
-      <c r="J5" s="52" t="s">
+      <c r="K5" s="69" cm="1">
+        <f t="array" ref="K5">_FV(A1,"Price")</f>
+        <v>3159.56</v>
+      </c>
+      <c r="L5" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="57" cm="1">
-        <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>3010.26</v>
-      </c>
-      <c r="L5" s="50" t="s">
+      <c r="M5" s="40"/>
+      <c r="N5" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="O5" s="59">
+      <c r="O5" s="106">
         <f>Financials!O21</f>
         <v>682000000</v>
       </c>
-      <c r="P5" s="48"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60">
+      <c r="A6" s="71">
         <f>O20/F10</f>
-        <v>4.9588092571293672</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="51">
+        <v>5.2047497639282341</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="42">
         <f>Financials!O190</f>
         <v>0.36170765260327803</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="42">
         <f>Financials!O33/Financials!O126</f>
         <v>-6.7022556390977446</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="55">
+      <c r="F6" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="65">
         <f>Financials!O96+Financials!O105</f>
         <v>14586000000</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="66">
+        <f>N25</f>
+        <v>9.2378496153081316E-2</v>
+      </c>
+      <c r="J6" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="62">
-        <f>N25</f>
-        <v>9.069719260708875E-2</v>
-      </c>
-      <c r="J6" s="54" t="s">
+      <c r="K6" s="72">
+        <f>I5/G4</f>
+        <v>4302.0957657174176</v>
+      </c>
+      <c r="L6" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="63">
-        <f>I5/G4</f>
-        <v>4414.2521858246528</v>
-      </c>
-      <c r="L6" s="64" t="s">
+      <c r="M6" s="40"/>
+      <c r="N6" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="48"/>
-      <c r="N6" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="O6" s="66">
+      <c r="O6" s="106">
         <f>Financials!O96</f>
         <v>855000000</v>
       </c>
-      <c r="P6" s="48"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67">
+      <c r="P6" s="40"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
         <f>O20/F12</f>
-        <v>19.42078033764793</v>
-      </c>
-      <c r="B7" s="68" t="s">
+        <v>20.383986686390532</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="76">
+        <f>F15/A3</f>
+        <v>6.0651362614594424E-2</v>
+      </c>
+      <c r="D7" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="69">
-        <f>F14/A3</f>
-        <v>6.365946921559533E-2</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="71">
+      <c r="E7" s="77">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.3131240571798003</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="78">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>-21.933834586466165</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="80">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J7" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="74">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J7" s="75" t="s">
+      <c r="K7" s="82">
+        <f>K6/K5-1</f>
+        <v>0.36161230225645902</v>
+      </c>
+      <c r="L7" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="109">
-        <f>K6/K5-1</f>
-        <v>0.46640229941089895</v>
-      </c>
-      <c r="L7" s="76" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="65" t="s">
-        <v>232</v>
-      </c>
-      <c r="O7" s="66">
+      <c r="O7" s="106">
         <f>Financials!O105</f>
         <v>13731000000</v>
       </c>
-      <c r="P7" s="48"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="79">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="O8" s="108">
         <f>O5/(O6+O7)</f>
         <v>4.6757164404223228E-2</v>
       </c>
-      <c r="P8" s="48"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81">
+      <c r="A9" s="87"/>
+      <c r="B9" s="88">
         <v>2019</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="88">
         <v>2020</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="88">
         <v>2021</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="89">
         <v>2022</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="43">
         <v>2023</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="44">
         <v>2024</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="44">
         <v>2025</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="44">
         <v>2026</v>
       </c>
-      <c r="J9" s="83">
+      <c r="J9" s="90">
         <v>2027</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="O9" s="66">
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="O9" s="106">
         <f>Financials!O25</f>
         <v>1092000000</v>
       </c>
-      <c r="P9" s="48"/>
+      <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="91" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="92">
+        <v>15066000000</v>
+      </c>
+      <c r="C10" s="92">
+        <v>6796000000</v>
+      </c>
+      <c r="D10" s="92">
+        <v>10958000000</v>
+      </c>
+      <c r="E10" s="93">
+        <v>17090000000</v>
+      </c>
+      <c r="F10" s="92">
+        <v>21180000000</v>
+      </c>
+      <c r="G10" s="92">
+        <v>23490000000</v>
+      </c>
+      <c r="H10" s="92">
+        <v>25800000000</v>
+      </c>
+      <c r="I10" s="92">
+        <v>27970000000</v>
+      </c>
+      <c r="J10" s="93">
+        <v>30160000000</v>
+      </c>
+      <c r="K10" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="87">
-        <v>15066000000</v>
-      </c>
-      <c r="C10" s="87">
-        <v>6796000000</v>
-      </c>
-      <c r="D10" s="87">
-        <v>10958000000</v>
-      </c>
-      <c r="E10" s="87">
-        <v>17090000000</v>
-      </c>
-      <c r="F10" s="88">
-        <v>21180000000</v>
-      </c>
-      <c r="G10" s="87">
-        <v>23490000000</v>
-      </c>
-      <c r="H10" s="87">
-        <v>25800000000</v>
-      </c>
-      <c r="I10" s="87">
-        <v>27970000000</v>
-      </c>
-      <c r="J10" s="87">
-        <v>30160000000</v>
-      </c>
-      <c r="K10" s="89" t="s">
+      <c r="L10" s="86"/>
+      <c r="N10" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="O10" s="66">
+      <c r="O10" s="106">
         <f>Financials!O24</f>
         <v>5549000000</v>
       </c>
-      <c r="P10" s="48"/>
+      <c r="P10" s="40"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91">
+      <c r="A11" s="95"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>-0.54891809372096112</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="46">
         <f t="shared" si="0"/>
         <v>0.61241907004120066</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="46">
         <f t="shared" si="0"/>
         <v>0.55959116627121741</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="47">
         <f t="shared" si="0"/>
         <v>0.23932124049151549</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="46">
         <f t="shared" si="0"/>
         <v>0.10906515580736542</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="46">
         <f t="shared" si="0"/>
         <v>9.8339719029374217E-2</v>
       </c>
-      <c r="I11" s="91">
+      <c r="I11" s="46">
         <f t="shared" si="0"/>
         <v>8.4108527131782962E-2</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="96">
         <f t="shared" si="0"/>
         <v>7.8298176617804804E-2</v>
       </c>
-      <c r="K11" s="93">
+      <c r="K11" s="96">
         <f>SUM(F11:J11)/5</f>
         <v>0.12182656381556858</v>
       </c>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="94">
+      <c r="L11" s="86"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="O11" s="109">
         <f>O9/O10</f>
         <v>0.19679221481347992</v>
       </c>
-      <c r="P11" s="48"/>
+      <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="87">
+      <c r="B12" s="92">
         <v>4865000000</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="92">
         <v>59000000</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="92">
         <v>1165000000</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="92">
         <v>3058000000</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="97">
         <v>5408000000</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="92">
         <v>6085000000</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="92">
         <v>6845000000</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="92">
         <v>6913000000</v>
       </c>
-      <c r="J12" s="87">
+      <c r="J12" s="93">
         <v>7545000000</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="L12" s="86"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="105" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="O12" s="96">
+      <c r="O12" s="109">
         <f>O8*(1-O11)</f>
         <v>3.755571846271813E-2</v>
       </c>
-      <c r="P12" s="48"/>
+      <c r="P12" s="40"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91">
+      <c r="A13" s="95"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.98787255909558069</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="46">
         <f t="shared" si="1"/>
         <v>18.745762711864408</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="46">
         <f t="shared" si="1"/>
         <v>1.624892703862661</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="47">
         <f t="shared" si="1"/>
         <v>0.76847612818835831</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="46">
         <f t="shared" si="1"/>
         <v>0.12518491124260356</v>
       </c>
-      <c r="H13" s="91">
+      <c r="H13" s="46">
         <f t="shared" si="1"/>
         <v>0.12489728841413306</v>
       </c>
-      <c r="I13" s="91">
+      <c r="I13" s="46">
         <f t="shared" si="1"/>
         <v>9.9342585829071961E-3</v>
       </c>
-      <c r="J13" s="91">
+      <c r="J13" s="96">
         <f t="shared" si="1"/>
         <v>9.1421958628670641E-2</v>
       </c>
-      <c r="K13" s="93">
+      <c r="K13" s="96">
         <f>SUM(F13:J13)/5</f>
         <v>0.22398290901133455</v>
       </c>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="120" t="s">
+      <c r="L13" s="86"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="124" t="s">
+        <v>239</v>
+      </c>
+      <c r="O13" s="125"/>
+      <c r="P13" s="40"/>
+    </row>
+    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="50">
+        <f>B12/B10</f>
+        <v>0.32291251825302003</v>
+      </c>
+      <c r="C14" s="50">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>8.6815773984696889E-3</v>
+      </c>
+      <c r="D14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.10631502098923161</v>
+      </c>
+      <c r="E14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.17893504973668811</v>
+      </c>
+      <c r="F14" s="51">
+        <f t="shared" si="2"/>
+        <v>0.25533522190745989</v>
+      </c>
+      <c r="G14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.25904640272456364</v>
+      </c>
+      <c r="H14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.26531007751937985</v>
+      </c>
+      <c r="I14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.2471576689309975</v>
+      </c>
+      <c r="J14" s="52">
+        <f t="shared" si="2"/>
+        <v>0.25016578249336868</v>
+      </c>
+      <c r="K14" s="52"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="O14" s="109">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="40"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="92">
+        <v>4714202081</v>
+      </c>
+      <c r="C15" s="92">
+        <v>-163955908</v>
+      </c>
+      <c r="D15" s="92">
+        <v>2781604096</v>
+      </c>
+      <c r="E15" s="92">
+        <v>6490786643</v>
+      </c>
+      <c r="F15" s="97">
+        <v>6686000000</v>
+      </c>
+      <c r="G15" s="92">
+        <v>6881000000</v>
+      </c>
+      <c r="H15" s="92">
+        <v>7703000000</v>
+      </c>
+      <c r="I15" s="92">
+        <v>8206000000</v>
+      </c>
+      <c r="J15" s="93">
+        <v>8859000000</v>
+      </c>
+      <c r="K15" s="98" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="121"/>
-      <c r="P13" s="48"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="87">
-        <v>4714202081</v>
-      </c>
-      <c r="C14" s="87">
-        <v>-163955908</v>
-      </c>
-      <c r="D14" s="87">
-        <v>2781604096</v>
-      </c>
-      <c r="E14" s="87">
-        <v>6490786643</v>
-      </c>
-      <c r="F14" s="88">
-        <v>6686000000</v>
-      </c>
-      <c r="G14" s="87">
-        <v>6881000000</v>
-      </c>
-      <c r="H14" s="87">
-        <v>7703000000</v>
-      </c>
-      <c r="I14" s="87">
-        <v>8206000000</v>
-      </c>
-      <c r="J14" s="87">
-        <v>8859000000</v>
-      </c>
-      <c r="K14" s="89" t="s">
-        <v>241</v>
-      </c>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="65" t="s">
+      <c r="L15" s="86"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="105" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="94">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
-      </c>
-      <c r="P14" s="48"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="O15" s="110" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.3786</v>
+      </c>
+      <c r="P15" s="40"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="99"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>-1.0347791429350905</v>
       </c>
-      <c r="D15" s="91">
-        <f t="shared" si="2"/>
+      <c r="D16" s="46">
+        <f t="shared" si="3"/>
         <v>-17.965561838735326</v>
       </c>
-      <c r="E15" s="91">
-        <f t="shared" si="2"/>
+      <c r="E16" s="46">
+        <f t="shared" si="3"/>
         <v>1.3334688974372289</v>
       </c>
-      <c r="F15" s="92">
-        <f t="shared" si="2"/>
+      <c r="F16" s="47">
+        <f t="shared" si="3"/>
         <v>3.0075454291896619E-2</v>
       </c>
-      <c r="G15" s="91">
-        <f t="shared" si="2"/>
+      <c r="G16" s="46">
+        <f t="shared" si="3"/>
         <v>2.9165420281184629E-2</v>
       </c>
-      <c r="H15" s="91">
-        <f t="shared" si="2"/>
+      <c r="H16" s="46">
+        <f t="shared" si="3"/>
         <v>0.11945938090393837</v>
       </c>
-      <c r="I15" s="91">
-        <f t="shared" si="2"/>
+      <c r="I16" s="46">
+        <f t="shared" si="3"/>
         <v>6.5299234064650102E-2</v>
       </c>
-      <c r="J15" s="91">
-        <f t="shared" si="2"/>
+      <c r="J16" s="96">
+        <f t="shared" si="3"/>
         <v>7.9575920058493788E-2</v>
       </c>
-      <c r="K15" s="93">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="96">
+        <f>SUM(F16:J16)/5</f>
         <v>6.4715081920032697E-2</v>
       </c>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="65" t="s">
+      <c r="L16" s="86"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="98" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.3616999999999999</v>
-      </c>
-      <c r="P15" s="48"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="86" t="s">
+      <c r="O16" s="109">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="50">
+        <f>B15/B10</f>
+        <v>0.31290336393203239</v>
+      </c>
+      <c r="C17" s="50">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>-2.4125354326074162E-2</v>
+      </c>
+      <c r="D17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.25384231575104949</v>
+      </c>
+      <c r="E17" s="52">
+        <f t="shared" si="4"/>
+        <v>0.37980027167934466</v>
+      </c>
+      <c r="F17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.31567516525023609</v>
+      </c>
+      <c r="G17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.29293316304810557</v>
+      </c>
+      <c r="H17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.29856589147286822</v>
+      </c>
+      <c r="I17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.29338577046835895</v>
+      </c>
+      <c r="J17" s="52">
+        <f t="shared" si="4"/>
+        <v>0.29373342175066314</v>
+      </c>
+      <c r="K17" s="52"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="111" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" s="112">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>9.9632394000000013E-2</v>
+      </c>
+      <c r="P17" s="40"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="99">
+      <c r="B18" s="101">
         <v>0.26684084403913999</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C18" s="101">
         <v>2.5183812887164939E-2</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D18" s="101">
         <v>0.10780578630764824</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E18" s="101">
         <v>0.23245780390669449</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="65" t="s">
+      <c r="F18" s="102"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="124" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="94">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="48"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="104" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="105">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.8077364E-2</v>
-      </c>
-      <c r="P17" s="48"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="O18" s="121"/>
-      <c r="P18" s="48"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="40"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="117" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Hotels &amp; Entertainment Services</v>
-      </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="122" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1998</v>
-      </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="O19" s="106">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="105" t="s">
+        <v>222</v>
+      </c>
+      <c r="O19" s="113">
         <f>O6+O7</f>
         <v>14586000000</v>
       </c>
-      <c r="P19" s="48"/>
+      <c r="P19" s="40"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="117" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="113" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>110236600000</v>
+      </c>
+      <c r="P20" s="40"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="126" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Hotels &amp; Entertainment Services</v>
+      </c>
+      <c r="B21" s="126"/>
+      <c r="C21" s="127" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1998</v>
+      </c>
+      <c r="D21" s="127"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="105" t="s">
+        <v>245</v>
+      </c>
+      <c r="O21" s="113">
+        <f>O19+O20</f>
+        <v>124822600000</v>
+      </c>
+      <c r="P21" s="40"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="126" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Booking Holdings Inc. is a provider of travel and restaurant online reservation and related services. The Company offers its services through six consumer-facing brands: Booking.com, Priceline.com, agoda.com, Rentalcars.com, KAYAK and OpenTable, Inc. (OpenTable). Through the Company's brands, consumers can: book a range of accommodations, including hotels, motels, resorts, homes, apartments, bed and breakfasts, hostels and other properties; make a car rental reservation or arrange for an airport taxi; make a dinner reservation; book a flight, cruise, vacation package, tour or activity. Consumers can also use its meta-search services to easily compare travel reservation information, such as airline ticket, hotel reservation and rental car reservation information, from various online travel platforms at once. Booking.com offers accommodation reservation services for approximately 400,000 properties in over 220 countries and territories, and in over 40 languages.</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="106" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>105027580066</v>
-      </c>
-      <c r="P20" s="48"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="117"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="65" t="s">
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="107" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="106">
-        <f>O19+O20</f>
-        <v>119613580066</v>
-      </c>
-      <c r="P21" s="48"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="117"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="78" t="s">
+      <c r="O22" s="114">
+        <f>(O19/O21)</f>
+        <v>0.11685383896826376</v>
+      </c>
+      <c r="P22" s="40"/>
+    </row>
+    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="107">
-        <f>(O19/O21)</f>
-        <v>0.12194267567237586</v>
-      </c>
-      <c r="P22" s="48"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="117"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="104" t="s">
+      <c r="O23" s="115">
+        <f>O20/O21</f>
+        <v>0.88314616103173627</v>
+      </c>
+      <c r="P23" s="40"/>
+    </row>
+    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="116" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="108">
-        <f>O20/O21</f>
-        <v>0.87805732432762418</v>
-      </c>
-      <c r="P23" s="48"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="117"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="111" t="s">
-        <v>249</v>
-      </c>
-      <c r="O24" s="112"/>
-      <c r="P24" s="48"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="40"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="117"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="113">
+      <c r="A25" s="126"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.069719260708875E-2</v>
-      </c>
-      <c r="O25" s="114"/>
-      <c r="P25" s="48"/>
+        <v>9.2378496153081316E-2</v>
+      </c>
+      <c r="O25" s="119"/>
+      <c r="P25" s="40"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="117"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="85"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="85"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="85"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="85"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="85"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="85"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
-      <c r="P48" s="85"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="85"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="85"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="85"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="85"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
-      <c r="O54" s="85"/>
-      <c r="P54" s="85"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="85"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="85"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="85"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="45"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="85"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="85"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="85"/>
-      <c r="P59" s="85"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="45"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="85"/>
-      <c r="O60" s="85"/>
-      <c r="P60" s="85"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="45"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
-      <c r="P61" s="85"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
-    <mergeCell ref="A20:E26"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:BKNG/explorer/revenue_proj" xr:uid="{636BC7E1-6C08-9F4E-9A7B-6959C9884CE5}"/>

--- a/Consumer/Booking Holdings.xlsx
+++ b/Consumer/Booking Holdings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28E31D3-42BE-EE4B-A366-8D744B75AB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF5EF4C-9E30-EA4B-86B0-0551EB37E911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1746,10 +1746,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1769,7 +1771,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1782,6 +1784,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1907,13 +1911,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>3251.7094000000002</v>
+    <v>3277.4250000000002</v>
     <v>1907.38</v>
-    <v>1.3786</v>
-    <v>33.86</v>
-    <v>1.0832999999999999E-2</v>
-    <v>5</v>
-    <v>1.5820000000000001E-3</v>
+    <v>1.3773</v>
+    <v>36.729999999999997</v>
+    <v>1.1342000000000001E-2</v>
+    <v>0.19</v>
+    <v>5.8019999999999997E-5</v>
     <v>USD</v>
     <v>Booking Holdings Inc. is a provider of travel and restaurant online reservation and related services. The Company offers its services through six consumer-facing brands: Booking.com, Priceline.com, agoda.com, Rentalcars.com, KAYAK and OpenTable, Inc. (OpenTable). Through the Company's brands, consumers can: book a range of accommodations, including hotels, motels, resorts, homes, apartments, bed and breakfasts, hostels and other properties; make a car rental reservation or arrange for an airport taxi; make a dinner reservation; book a flight, cruise, vacation package, tour or activity. Consumers can also use its meta-search services to easily compare travel reservation information, such as airline ticket, hotel reservation and rental car reservation information, from various online travel platforms at once. Booking.com offers accommodation reservation services for approximately 400,000 properties in over 220 countries and territories, and in over 40 languages.</v>
     <v>21600</v>
@@ -1921,25 +1925,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>800 CONNECTICUT AVE, NORWALK, CT, 06854-1631 US</v>
-    <v>3179.29</v>
+    <v>3277.4250000000002</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45262.025916712497</v>
+    <v>45269.041158714841</v>
     <v>0</v>
-    <v>3099.0549999999998</v>
-    <v>110236600000</v>
+    <v>3220.96</v>
+    <v>114264324250</v>
     <v>BOOKING HOLDINGS INC.</v>
     <v>BOOKING HOLDINGS INC.</v>
-    <v>3125.29</v>
-    <v>21.767800000000001</v>
-    <v>3125.7</v>
-    <v>3159.56</v>
-    <v>3164.56</v>
+    <v>3220.96</v>
+    <v>22.5518</v>
+    <v>3238.27</v>
+    <v>3275</v>
+    <v>3275.19</v>
     <v>34889870</v>
     <v>BKNG</v>
     <v>BOOKING HOLDINGS INC. (XNAS:BKNG)</v>
-    <v>205072</v>
-    <v>265606</v>
+    <v>244872</v>
+    <v>259817</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2104,9 +2108,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -15867,7 +15871,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15916,7 +15920,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>110236600000</v>
+        <v>114264324250</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>201</v>
@@ -15944,7 +15948,7 @@
       </c>
       <c r="I3" s="58">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>134768145898.79709</v>
+        <v>133419599147.65367</v>
       </c>
       <c r="J3" s="59" t="s">
         <v>205</v>
@@ -15994,14 +15998,14 @@
       </c>
       <c r="I4" s="41">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>115895177210.46053</v>
+        <v>114707235991.50584</v>
       </c>
       <c r="J4" s="64" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="66" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.0832999999999999E-2</v>
+        <v>1.1342000000000001E-2</v>
       </c>
       <c r="L4" s="67" t="s">
         <v>251</v>
@@ -16044,14 +16048,14 @@
       </c>
       <c r="I5" s="41">
         <f>I4+G5-G6</f>
-        <v>116551177210.46053</v>
+        <v>115363235991.50584</v>
       </c>
       <c r="J5" s="64" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="69" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>3159.56</v>
+        <v>3275</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>218</v>
@@ -16069,7 +16073,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="71">
         <f>O20/F10</f>
-        <v>5.2047497639282341</v>
+        <v>5.3949161591123698</v>
       </c>
       <c r="B6" s="63" t="s">
         <v>220</v>
@@ -16097,14 +16101,14 @@
       </c>
       <c r="I6" s="66">
         <f>N25</f>
-        <v>9.2378496153081316E-2</v>
+        <v>9.3059528420189302E-2</v>
       </c>
       <c r="J6" s="64" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="72">
         <f>I5/G4</f>
-        <v>4302.0957657174176</v>
+        <v>4258.2469002635953</v>
       </c>
       <c r="L6" s="73" t="s">
         <v>224</v>
@@ -16122,14 +16126,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
         <f>O20/F12</f>
-        <v>20.383986686390532</v>
+        <v>21.128758182322485</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="76">
         <f>F15/A3</f>
-        <v>6.0651362614594424E-2</v>
+        <v>5.8513451542159714E-2</v>
       </c>
       <c r="D7" s="75" t="s">
         <v>227</v>
@@ -16156,7 +16160,7 @@
       </c>
       <c r="K7" s="82">
         <f>K6/K5-1</f>
-        <v>0.36161230225645902</v>
+        <v>0.30022806114918943</v>
       </c>
       <c r="L7" s="83" t="s">
         <v>230</v>
@@ -16469,7 +16473,7 @@
       </c>
       <c r="O14" s="109">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="40"/>
     </row>
@@ -16514,7 +16518,7 @@
       </c>
       <c r="O15" s="110" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.3786</v>
+        <v>1.3773</v>
       </c>
       <c r="P15" s="40"/>
     </row>
@@ -16615,7 +16619,7 @@
       </c>
       <c r="O17" s="112">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.9632394000000013E-2</v>
+        <v>0.10014466700000001</v>
       </c>
       <c r="P17" s="40"/>
     </row>
@@ -16691,7 +16695,7 @@
       </c>
       <c r="O20" s="113" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>110236600000</v>
+        <v>114264324250</v>
       </c>
       <c r="P20" s="40"/>
     </row>
@@ -16719,7 +16723,7 @@
       </c>
       <c r="O21" s="113">
         <f>O19+O20</f>
-        <v>124822600000</v>
+        <v>128850324250</v>
       </c>
       <c r="P21" s="40"/>
     </row>
@@ -16745,7 +16749,7 @@
       </c>
       <c r="O22" s="114">
         <f>(O19/O21)</f>
-        <v>0.11685383896826376</v>
+        <v>0.11320111210352658</v>
       </c>
       <c r="P22" s="40"/>
     </row>
@@ -16768,7 +16772,7 @@
       </c>
       <c r="O23" s="115">
         <f>O20/O21</f>
-        <v>0.88314616103173627</v>
+        <v>0.88679888789647343</v>
       </c>
       <c r="P23" s="40"/>
     </row>
@@ -16808,7 +16812,7 @@
       <c r="M25" s="45"/>
       <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.2378496153081316E-2</v>
+        <v>9.3059528420189302E-2</v>
       </c>
       <c r="O25" s="119"/>
       <c r="P25" s="40"/>
